--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T06:10:15+00:00</t>
+    <t>2022-11-19T22:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T09:28:17+00:00</t>
+    <t>2022-11-20T17:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -674,7 +674,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000060"/&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/220000000060"/&gt;
     &lt;code value="220000000061"/&gt;
     &lt;display value="Marketing Authorisation"/&gt;
   &lt;/coding&gt;
@@ -773,7 +773,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -921,7 +921,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>http://spor.ema.europa.eu/v1/lists/100000072049</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072049</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status.coding.version</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -737,34 +737,88 @@
     <t>Code defined by a terminology system</t>
   </si>
   <si>
+    <t>EMA IG 2.3</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.region.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status</t>
+  </si>
+  <si>
+    <t>Marketing authorisation status</t>
+  </si>
+  <si>
+    <t>EMA IG 2.4</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+  </si>
+  <si>
+    <t>Marketing Authorisation.Authorisation Status</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding</t>
+  </si>
+  <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.system</t>
+    <t>RegulatedAuthorization.status.coding.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
   </si>
   <si>
-    <t>EMA IG 2.3</t>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -773,7 +827,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072049</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -782,7 +836,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.version</t>
+    <t>RegulatedAuthorization.status.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -800,7 +854,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.code</t>
+    <t>RegulatedAuthorization.status.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -818,7 +872,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.display</t>
+    <t>RegulatedAuthorization.status.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -836,7 +890,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.userSelected</t>
+    <t>RegulatedAuthorization.status.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -859,81 +913,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status</t>
-  </si>
-  <si>
-    <t>Marketing authorisation status</t>
-  </si>
-  <si>
-    <t>EMA IG 2.4</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation.Authorisation Status</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000072049</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.version</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.code</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.display</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.userSelected</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status.text</t>
@@ -1445,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1454,7 +1433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4248,13 +4227,11 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -4272,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4293,12 +4270,12 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4318,19 +4295,23 @@
         <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4378,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4390,7 +4371,7 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4399,23 +4380,23 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -4424,20 +4405,18 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4462,57 +4441,57 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4532,23 +4511,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4557,7 +4532,7 @@
         <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>73</v>
@@ -4596,7 +4571,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4608,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4617,23 +4592,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4642,19 +4617,19 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4692,31 +4667,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4725,7 +4700,7 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>251</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -4741,7 +4716,7 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4753,17 +4728,19 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4812,13 +4789,13 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4833,12 +4810,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4858,21 +4835,19 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4920,7 +4895,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4932,7 +4907,7 @@
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -4941,23 +4916,23 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4966,23 +4941,21 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5018,31 +4991,31 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5051,12 +5024,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5079,19 +5052,19 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5101,7 +5074,7 @@
         <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>73</v>
@@ -5140,7 +5113,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5161,12 +5134,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5174,7 +5147,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>82</v>
@@ -5189,15 +5162,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5222,13 +5197,13 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>73</v>
@@ -5246,7 +5221,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5261,18 +5236,18 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5267,21 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5352,7 +5329,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5364,7 +5341,7 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5373,23 +5350,23 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>149</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5398,21 +5375,21 @@
         <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5448,31 +5425,31 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5481,12 +5458,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>149</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5497,7 +5474,7 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -5509,19 +5486,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -5570,13 +5547,13 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -5591,12 +5568,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5616,19 +5593,23 @@
         <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
       </c>
@@ -5676,7 +5657,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5669,7 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -5697,23 +5678,23 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5722,20 +5703,18 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -5772,45 +5751,45 @@
         <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5833,20 +5812,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
       </c>
@@ -5855,7 +5830,7 @@
         <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>73</v>
@@ -5894,7 +5869,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5909,18 +5884,18 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5943,17 +5918,15 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6002,7 +5975,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6017,18 +5990,18 @@
         <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6051,18 +6024,16 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6086,13 +6057,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>308</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -6110,7 +6081,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6125,18 +6096,18 @@
         <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6147,7 +6118,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6159,18 +6130,16 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6194,13 +6163,13 @@
         <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>73</v>
@@ -6218,13 +6187,13 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -6233,18 +6202,18 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6252,7 +6221,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>82</v>
@@ -6267,20 +6236,16 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6328,7 +6293,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6343,18 +6308,18 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6377,20 +6342,16 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6438,7 +6399,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6453,18 +6414,18 @@
         <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6487,13 +6448,13 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6544,7 +6505,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6556,10 +6517,10 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6570,7 +6531,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6590,16 +6551,16 @@
         <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6650,7 +6611,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6662,32 +6623,32 @@
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6696,18 +6657,20 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -6756,65 +6719,69 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
       </c>
@@ -6838,13 +6805,13 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -6862,33 +6829,33 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6899,7 +6866,7 @@
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6911,13 +6878,13 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6944,13 +6911,13 @@
         <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -6968,13 +6935,13 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6983,7 +6950,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -6994,7 +6961,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7002,7 +6969,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>82</v>
@@ -7017,13 +6984,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7050,13 +7017,13 @@
         <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>345</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>73</v>
@@ -7074,7 +7041,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7089,7 +7056,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7100,7 +7067,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7123,13 +7090,13 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7156,13 +7123,13 @@
         <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>73</v>
@@ -7180,7 +7147,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7195,7 +7162,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7206,7 +7173,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7229,13 +7196,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7286,7 +7253,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7298,10 +7265,10 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7312,7 +7279,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7323,7 +7290,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -7332,16 +7299,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7392,775 +7359,27 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:07:41+00:00</t>
+    <t>2022-11-22T20:42:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/branches/mpd-r4b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
